--- a/examples/sources/data/unsolved/to_schedule/2019-04-10.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-10.xlsx
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2">
         <v>43565</v>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" s="2">
         <v>43565</v>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" s="2">
         <v>43565</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" s="2">
         <v>43565</v>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" s="2">
         <v>43565</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="2">
         <v>43565</v>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O136" s="2">
         <v>43565</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -6980,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="N142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O142" s="2">
         <v>43565</v>
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" s="2">
         <v>43565</v>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>1</v>
